--- a/biology/Botanique/Stachys_byzantina/Stachys_byzantina.xlsx
+++ b/biology/Botanique/Stachys_byzantina/Stachys_byzantina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épiaire de Byzance ou épiaire laineuse (Stachys byzantina) est une espèce de plantes herbacées de la famille des Lamiaceae. On l'appelle aussi oreille de lapin, oreille d'ours ou oreille d'agneau en référence à la forme élancée et à la surface duveteuse de ses feuilles. Elle est cultivée comme plante ornementale.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachys byzantina est une plante herbacée vivace, laineuse, de couleur gris-blanc. Les feuilles inférieures forment une rosette basale compacte d'où émerge une tige de 60 cm de haut. Les feuilles basales opposées sont oblongues-elliptiques, de 10 × 2,5 cm, laineuses, soyeuses, à marge crénelée.
 La hampe florale porte des feuilles opposées de plus en plus courtes vers le haut et un épi de 10-22 cm de haut, comportant beaucoup de fleurs sessiles, densément verticillées. Le calice de 1,2 cm est tubulaire-campanulé. La corolle bilabiée de couleur rose violacé a une lèvre supérieure concave.
@@ -544,7 +558,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la rencontre à l'état sauvage dans les pelouses calcicoles en Grèce, Eurasie : Iran, Turquie, Arménie et Azerbaïdjan.
 Elle est cultivée ailleurs.
@@ -576,10 +592,12 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachys byzantina est une plante vivace facile à cultiver. Elle est particulièrement adaptée aux climats secs et s’utilise comme un couvert végétal de croissance rapide.
-Stachys byzantina est appréciée par une multitude d'insectes et de colibris et en particulier des abeilles. Un type spécial d'abeille, l'abeille cotonnière, recueille le duvet des feuilles pour l'utiliser pour faire des nids dans du bois pourri. Il a également été documenté que les bourdons aiment se rassembler le matin pour recueillir l'eau condensée qui s'accumule sur le duvet des feuilles de cette plante[1],[2].
+Stachys byzantina est appréciée par une multitude d'insectes et de colibris et en particulier des abeilles. Un type spécial d'abeille, l'abeille cotonnière, recueille le duvet des feuilles pour l'utiliser pour faire des nids dans du bois pourri. Il a également été documenté que les bourdons aiment se rassembler le matin pour recueillir l'eau condensée qui s'accumule sur le duvet des feuilles de cette plante,.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Stachys olympica auct.
 Stachys lanata Jacquin
